--- a/volatility/src/dollar.xlsx
+++ b/volatility/src/dollar.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taatsush\Downloads\volatility\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taatsush\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFAEBAB-6B67-47A6-815E-EDA81FF20432}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26700" yWindow="-75" windowWidth="21375" windowHeight="21135" tabRatio="742"/>
+    <workbookView xWindow="4680" yWindow="75" windowWidth="21420" windowHeight="16125" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jpy" sheetId="51" r:id="rId1"/>
@@ -18,8 +19,14 @@
     <sheet name="jpy rate" sheetId="47" r:id="rId4"/>
     <sheet name="median" sheetId="48" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>USDJPY</t>
   </si>
@@ -67,31 +74,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AUDCHF</t>
-  </si>
-  <si>
-    <t>AUDNZD</t>
-  </si>
-  <si>
     <t>AUDUSD</t>
   </si>
   <si>
-    <t>EURAUD</t>
-  </si>
-  <si>
-    <t>EURCHF</t>
-  </si>
-  <si>
-    <t>EURGBP</t>
-  </si>
-  <si>
     <t>EURUSD</t>
-  </si>
-  <si>
-    <t>GBPAUD</t>
-  </si>
-  <si>
-    <t>GBPCHF</t>
   </si>
   <si>
     <t>GBPUSD</t>
@@ -204,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,12 +639,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -669,13 +655,13 @@
   <sheetData>
     <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1">
         <f>amount!B1</f>
@@ -683,14 +669,14 @@
       </c>
       <c r="J1" s="1">
         <f>VLOOKUP(B2,median!A1:B7,2)</f>
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K1" s="1">
         <f>1/J1</f>
-        <v>0.66666666666666663</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -698,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D2" s="10">
         <v>131</v>
@@ -723,31 +709,31 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="N4" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>500</v>
+        <v>535.71428571428578</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>5000</v>
+        <v>5357</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5/10</f>
-        <v>50</v>
+        <v>53.571428571428577</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -755,7 +741,7 @@
       <c r="C7" s="6"/>
       <c r="I7" s="1">
         <f>J1</f>
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -763,25 +749,25 @@
       <c r="C8" s="6"/>
       <c r="I8" s="1">
         <f>ROUND(I7/amount!B2,2)</f>
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>129.5</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>132.5</v>
+        <v>132.4</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -791,54 +777,54 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>132.5</v>
+        <v>132.4</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>129.5</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>131.75</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>129.5</v>
+        <v>129.6</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>132.5</v>
+        <v>132.4</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>133.25</v>
+        <v>133.1</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>130.25</v>
+        <v>130.29999999999998</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>130.25</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>131.75</v>
+        <v>131.69999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -846,11 +832,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>128.75</v>
+        <v>128.9</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>133.25</v>
+        <v>133.1</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -858,11 +844,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>131.75</v>
+        <v>131.70000000000002</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>130.25</v>
+        <v>130.29999999999998</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -884,10 +870,10 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="4"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$N$4:$N$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$N$1:$N$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -897,12 +883,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -913,13 +899,13 @@
   <sheetData>
     <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1">
         <f>amount!B1</f>
@@ -927,11 +913,11 @@
       </c>
       <c r="J1" s="1">
         <f>VLOOKUP(B2,median!A1:B7,2)</f>
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K1" s="1">
         <f>1/J1</f>
-        <v>0.66666666666666663</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>4</v>
@@ -939,19 +925,19 @@
     </row>
     <row r="2" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
-        <v>CAD</v>
-      </c>
-      <c r="N2" s="4" t="s">
+        <v>USD</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -960,13 +946,13 @@
       <c r="C3" s="6"/>
       <c r="J3" s="1">
         <f>VLOOKUP(J2,'jpy rate'!A1:B3,2)</f>
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K3" s="1">
         <f>100/J3</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="s">
+        <v>0.92592592592592593</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -979,12 +965,12 @@
     </row>
     <row r="5" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>500</v>
+        <v>330.68783068783068</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>8</v>
@@ -993,12 +979,12 @@
     <row r="6" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>5000</v>
+        <v>3306</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5/10</f>
-        <v>50</v>
+        <v>33.06878306878307</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>9</v>
@@ -1009,10 +995,7 @@
       <c r="C7" s="6"/>
       <c r="I7" s="1">
         <f>J1/100</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>10</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -1020,35 +1003,32 @@
       <c r="C8" s="6"/>
       <c r="I8" s="1">
         <f>ROUND(I7/amount!B2,4)</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>11</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>12</v>
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>1.0149999999999999</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="N10" s="5" t="s">
-        <v>13</v>
+      <c r="N10" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -1057,63 +1037,54 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>1.0149999999999999</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>14</v>
+        <v>0.97899999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>1.0075000000000001</v>
+        <v>1.0105</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>0.98499999999999999</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>15</v>
+        <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>1.0225</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>16</v>
+        <v>1.0314999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>0.99250000000000005</v>
+        <v>0.98949999999999994</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>0.99250000000000005</v>
+        <v>0.98950000000000005</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>1.0075000000000001</v>
+        <v>1.0105</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -1121,11 +1092,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>0.97750000000000004</v>
+        <v>0.96850000000000003</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>1.0225</v>
+        <v>1.0314999999999999</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -1133,43 +1104,37 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>1.0075000000000001</v>
+        <v>1.0105</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.98949999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="N17" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="4"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>$N$16:$N$17</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>$N$9:$N$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>$N$1:$N$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>$N$1:$N$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -1178,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1193,7 +1158,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5">
         <v>750</v>
@@ -1201,7 +1166,7 @@
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
@@ -1226,12 +1191,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1244,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="5">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1252,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1260,11 +1225,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="5">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:F8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>
   </sortState>
@@ -1279,12 +1244,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1294,7 +1259,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -1302,7 +1267,7 @@
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5">
         <v>1.3</v>
@@ -1310,7 +1275,7 @@
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>2.1</v>
@@ -1318,7 +1283,7 @@
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5">
         <v>1.2</v>
@@ -1326,7 +1291,7 @@
     </row>
     <row r="5" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5">
         <v>1.5</v>
@@ -1334,7 +1299,7 @@
     </row>
     <row r="6" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5">
         <v>1.2</v>
@@ -1345,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
